--- a/data/trans_camb/P34_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-11,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-10,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,01</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 8,95</t>
+          <t>-13,62; 8,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 2,44</t>
+          <t>-17,92; 2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 8,95</t>
+          <t>-21,86; -0,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 8,39</t>
+          <t>0,64; 24,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 12,08</t>
+          <t>-11,05; 13,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 3,92</t>
+          <t>-9,92; 7,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 6,36</t>
+          <t>-9,01; 9,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 4,32</t>
+          <t>-16,78; -0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 4,48</t>
+          <t>-1,51; 15,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 12,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 5,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 2,99</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; -3,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 17,92</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 10,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-45,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-6,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,51%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-46,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-17,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-46,8%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>84,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 44,31</t>
+          <t>-43,97; 39,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 11,97</t>
+          <t>-58,19; 11,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 43,38</t>
+          <t>-70,37; 3,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 57,83</t>
+          <t>1,87; 268,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 92,55</t>
+          <t>-36,11; 71,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 30,55</t>
+          <t>-41,66; 56,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 33,79</t>
+          <t>-40,15; 66,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 23,25</t>
+          <t>-73,4; -0,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 24,72</t>
+          <t>-18,91; 231,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,64; 133,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,29; 29,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 16,71</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-65,72; -13,79</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 210,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,74; 66,91</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-9,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,15</t>
+          <t>-11,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-6,54</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 3,73</t>
+          <t>-21,97; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 4,88</t>
+          <t>-21,94; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,71; -1,04</t>
+          <t>-26,52; 2,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 5,75</t>
+          <t>-14,24; 14,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 7,42</t>
+          <t>-9,62; 15,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 11,67</t>
+          <t>-9,57; 5,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 2,9</t>
+          <t>-8,36; 6,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 3,75</t>
+          <t>-9,27; 7,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 2,25</t>
+          <t>-1,16; 16,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 13,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 1,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; 2,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 2,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 11,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 11,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,51%</t>
+          <t>-21,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,45%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>42,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-14,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-21,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 11,05</t>
+          <t>-44,44; 7,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 13,41</t>
+          <t>-44,37; 12,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,27; -2,55</t>
+          <t>-55,27; 8,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 40,69</t>
+          <t>-37,85; 65,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 49,46</t>
+          <t>-28,8; 73,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 81,61</t>
+          <t>-41,3; 43,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 10,49</t>
+          <t>-38,34; 40,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 15,52</t>
+          <t>-39,37; 53,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 8,43</t>
+          <t>-8,15; 121,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-22,06; 78,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 5,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,98; 10,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 7,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 61,35</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 51,17</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 5,42</t>
+          <t>-14,98; 4,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 4,4</t>
+          <t>-15,82; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 14,61</t>
+          <t>-16,86; 5,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 10,06</t>
+          <t>-8,36; 13,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 8,69</t>
+          <t>-16,11; 3,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 11,41</t>
+          <t>-3,55; 9,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,22</t>
+          <t>-5,11; 7,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 3,77</t>
+          <t>-7,95; 5,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 10,29</t>
+          <t>0,72; 15,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 12,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 4,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 3,85</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 2,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 11,46</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 4,91</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,12%</t>
+          <t>-17,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>-19,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-18,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>39,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-14,22%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 21,5</t>
+          <t>-39,07; 15,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 16,5</t>
+          <t>-41,01; 16,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 56,21</t>
+          <t>-44,67; 21,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 57,76</t>
+          <t>-25,21; 69,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 49,79</t>
+          <t>-39,4; 10,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 66,47</t>
+          <t>-14,25; 53,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 22,89</t>
+          <t>-20,33; 42,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 16,54</t>
+          <t>-31,98; 28,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 44,88</t>
+          <t>2,73; 93,41</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-14,9; 59,5</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 18,56</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 16,46</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-35,53; 10,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 57,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-24,44; 18,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>10,13</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-8,31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9,69</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-6,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 10,03</t>
+          <t>-6,68; 9,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 3,74</t>
+          <t>-12,5; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 19,23</t>
+          <t>-12,46; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 2,84</t>
+          <t>-0,57; 17,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 4,87</t>
+          <t>-14,37; 5,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 23,47</t>
+          <t>-10,9; 1,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,59</t>
+          <t>-8,23; 4,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,9</t>
+          <t>-10,01; 3,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 19,47</t>
+          <t>2,51; 17,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; 0,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 3,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 2,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 1,98</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 15,55</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 0,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>-14,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68,72%</t>
+          <t>-18,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-8,74%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>49,69%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-21,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,96%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-14,84%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45,81%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-17,49%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 48,25</t>
+          <t>-22,76; 43,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 16,83</t>
+          <t>-38,81; 15,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 90,34</t>
+          <t>-41,02; 28,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 14,47</t>
+          <t>-3,24; 101,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 24,87</t>
+          <t>-35,68; 16,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,76; 120,21</t>
+          <t>-40,03; 8,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 20,81</t>
+          <t>-29,04; 25,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 14,35</t>
+          <t>-37,11; 16,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,11; 90,5</t>
+          <t>9,04; 102,96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-39,16; 1,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-24,93; 14,64</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; 9,77</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-32,95; 9,22</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 84,79</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-31,42; 1,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,45</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 7,29</t>
+          <t>-8,69; 7,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 4,99</t>
+          <t>-10,45; 6,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 10,41</t>
+          <t>-13,9; 2,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 2,3</t>
+          <t>0,17; 17,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 2,18</t>
+          <t>-7,49; 12,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 15,3</t>
+          <t>-12,2; 1,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 3,04</t>
+          <t>-12,71; 2,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,34</t>
+          <t>-13,04; 2,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 9,94</t>
+          <t>-2,59; 13,91</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 2,55</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 2,91</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 1,78</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; 0,55</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 13,71</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 4,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>-22,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-20,96%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>-22,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-21,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-20,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-14,4%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-21,54%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-6,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 32,03</t>
+          <t>-28,04; 36,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 22,29</t>
+          <t>-32,61; 29,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 45,35</t>
+          <t>-44,99; 11,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 12,05</t>
+          <t>-0,28; 99,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 11,23</t>
+          <t>-22,69; 50,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 76,67</t>
+          <t>-45,2; 9,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 13,84</t>
+          <t>-46,19; 11,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 6,26</t>
+          <t>-47,27; 13,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 44,04</t>
+          <t>-11,11; 89,63</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-41,56; 10,45</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 13,67</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; 8,36</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-40,2; 2,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 82,49</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-23,92; 18,09</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 6,44</t>
+          <t>-7,16; 5,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 5,26</t>
+          <t>-8,14; 4,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 13,3</t>
+          <t>-5,92; 9,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,34</t>
+          <t>-1,13; 17,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,64</t>
+          <t>-4,5; 13,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,51</t>
+          <t>-4,12; 4,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,47</t>
+          <t>-4,23; 4,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,02</t>
+          <t>-5,05; 4,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,91</t>
+          <t>-1,76; 7,85</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 6,11</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 3,99</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 3,47</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 5,01</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 9,81</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>-14,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>65,7%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>57,79%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 79,41</t>
+          <t>-51,4; 73,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 63,61</t>
+          <t>-54,44; 58,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 170,15</t>
+          <t>-40,53; 108,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 204,38</t>
+          <t>-7,02; 201,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 142,55</t>
+          <t>-21,88; 115,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 201,27</t>
+          <t>-49,95; 164,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 80,25</t>
+          <t>-56,24; 134,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 51,2</t>
+          <t>-75,31; 158,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 133,02</t>
+          <t>-39,05; 352,65</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-50,9; 157,1</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-37,49; 65,73</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-45,93; 61,64</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-35,74; 84,31</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 160,64</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 93,57</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,47</t>
+          <t>-6,66; 1,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,72</t>
+          <t>-8,99; -0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,47</t>
+          <t>-10,5; -1,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,92</t>
+          <t>2,27; 11,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,66</t>
+          <t>-4,78; 3,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,88</t>
+          <t>-4,12; 1,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,95</t>
+          <t>-3,43; 2,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,15</t>
+          <t>-6,38; -0,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,64</t>
+          <t>3,33; 10,0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,87</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 0,51</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; -0,02</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; -1,79</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 9,44</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,27%</t>
+          <t>-17,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>-22,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>-17,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-8,72%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 6,02</t>
+          <t>-22,35; 5,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -2,42</t>
+          <t>-30,24; -3,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 21,71</t>
+          <t>-34,95; -5,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 11,5</t>
+          <t>8,31; 59,84</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 16,36</t>
+          <t>-15,48; 13,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,4; 48,44</t>
+          <t>-20,62; 10,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 4,79</t>
+          <t>-17,78; 12,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-20,29; -0,58</t>
+          <t>-31,71; -0,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,32; 26,36</t>
+          <t>20,85; 75,78</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 13,79</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-18,92; 2,38</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; -0,08</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; -8,41</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>20,61; 54,93</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 9,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
